--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1454.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1454.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.486342788538375</v>
+        <v>1.164478063583374</v>
       </c>
       <c r="B1">
-        <v>1.636734583248965</v>
+        <v>2.279306650161743</v>
       </c>
       <c r="C1">
-        <v>1.935362459220248</v>
+        <v>4.431197643280029</v>
       </c>
       <c r="D1">
-        <v>3.420335440056919</v>
+        <v>3.46958327293396</v>
       </c>
       <c r="E1">
-        <v>0.9223446858876829</v>
+        <v>1.228003025054932</v>
       </c>
     </row>
   </sheetData>
